--- a/Project/EBA/【EBA】ゲームフロー.xlsx
+++ b/Project/EBA/【EBA】ゲームフロー.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RandD\Validation\Project\EBA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{071D7DE8-E8B4-4F91-9DC1-38EAF4FC9578}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1C67306-A7B7-4DF0-95DC-F5A1CE572DA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{96D1A628-F290-4C6E-BBC8-C3AE43274D4B}"/>
   </bookViews>
@@ -188,8 +188,8 @@
       <xdr:rowOff>142873</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>108857</xdr:colOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>326571</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>115659</xdr:rowOff>
     </xdr:to>
@@ -207,7 +207,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14916150" y="5041444"/>
-          <a:ext cx="5603421" cy="6340929"/>
+          <a:ext cx="8542564" cy="6340929"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6761,14 +6761,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>346882</xdr:colOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>292451</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>159198</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>623107</xdr:colOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>568676</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>206823</xdr:rowOff>
     </xdr:to>
@@ -6785,7 +6785,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="20077239" y="5547627"/>
+          <a:off x="22744237" y="5547627"/>
           <a:ext cx="276225" cy="292553"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6826,14 +6826,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>346882</xdr:colOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>292451</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>110890</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>623107</xdr:colOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>568676</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>158515</xdr:rowOff>
     </xdr:to>
@@ -6850,7 +6850,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="20077239" y="6479033"/>
+          <a:off x="22744237" y="6479033"/>
           <a:ext cx="276225" cy="292553"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6891,14 +6891,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>346882</xdr:colOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>292451</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>99319</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>623107</xdr:colOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>568676</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>156468</xdr:rowOff>
     </xdr:to>
@@ -6915,7 +6915,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="20077239" y="7447176"/>
+          <a:off x="22744237" y="7447176"/>
           <a:ext cx="276225" cy="302078"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6956,173 +6956,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>74907</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>57824</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>346882</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>60547</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="117" name="直線コネクタ 116">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4ABBF509-A158-48B9-95FE-27DC24EAAEAD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="104" idx="3"/>
-          <a:endCxn id="125" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="19805264" y="5691181"/>
-          <a:ext cx="271975" cy="2723"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>77630</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>9516</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>346882</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>12239</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="120" name="直線コネクタ 119">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FD39CF8-1A4D-4F97-B937-453560CCA6DF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="106" idx="3"/>
-          <a:endCxn id="128" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="19807987" y="6622587"/>
-          <a:ext cx="269252" cy="2723"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>80353</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>5429</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>346882</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>7468</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="131" name="直線コネクタ 130">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CE2F338-7017-4BE7-9A3B-84B418EBA0A4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="108" idx="3"/>
-          <a:endCxn id="130" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="19810710" y="7598215"/>
-          <a:ext cx="266529" cy="2039"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>484995</xdr:colOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>430564</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>206823</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>484995</xdr:colOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>430564</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>110890</xdr:rowOff>
     </xdr:to>
@@ -7142,7 +6983,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="20215352" y="5840180"/>
+          <a:off x="22882350" y="5840180"/>
           <a:ext cx="0" cy="638853"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -7168,14 +7009,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>484995</xdr:colOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>430564</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>158515</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>484995</xdr:colOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>430564</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>99319</xdr:rowOff>
     </xdr:to>
@@ -7195,7 +7036,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="20215352" y="6771586"/>
+          <a:off x="22882350" y="6771586"/>
           <a:ext cx="0" cy="675590"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -7340,66 +7181,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>254978</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>151027</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>258528</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>31280</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="175" name="直線コネクタ 174">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F70ABFA2-1F56-470F-AD22-A3B4BB25F5E0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="96" idx="2"/>
-          <a:endCxn id="169" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14004108" y="5915723"/>
-          <a:ext cx="3550" cy="4443970"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
       <xdr:colOff>396640</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>156469</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>484995</xdr:colOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>430564</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>182320</xdr:rowOff>
     </xdr:to>
@@ -7419,10 +7207,794 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="15627071" y="6125967"/>
-          <a:ext cx="2964994" cy="6211569"/>
+          <a:off x="16960570" y="4792468"/>
+          <a:ext cx="2964994" cy="8878567"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>640129</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>47621</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>562729</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>208175</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="122" name="四角形: 角を丸くする 121">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{435F4F10-950F-4BDF-AE64-954C09C0CDA3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12886558" y="7395478"/>
+          <a:ext cx="1963671" cy="650411"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>チャレンジリザルト</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>258528</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>151027</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>261251</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>47621</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="直線矢印コネクタ 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3A392C1-7A40-4BC2-97EF-504DAEC0BC13}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="96" idx="2"/>
+          <a:endCxn id="122" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13865671" y="6029313"/>
+          <a:ext cx="2723" cy="1366165"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>258528</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>208175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>261251</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>31280</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="68" name="直線コネクタ 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2133C89-B2E8-4CB0-ADC0-A50B3A6064B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="122" idx="2"/>
+          <a:endCxn id="169" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="13865671" y="8045889"/>
+          <a:ext cx="2723" cy="2517320"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>549631</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>225198</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>472231</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>140823</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="132" name="四角形: 角を丸くする 131">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{574CE01B-CD8E-4D47-82A1-4D7679AFE01A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20279988" y="5368698"/>
+          <a:ext cx="1963672" cy="650411"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>30vs30</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>団体戦リザルト</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>552354</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>167365</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>474954</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>92515</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="134" name="四角形: 角を丸くする 133">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8ABCC22E-813B-4D66-B475-A298C7A66E34}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20282711" y="6290579"/>
+          <a:ext cx="1963672" cy="659936"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>武器固定団体戦リザルト</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>555077</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>170080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>477677</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>85706</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="135" name="四角形: 角を丸くする 134">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70088AC7-27B5-4913-84B6-F296474276CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20285434" y="7273009"/>
+          <a:ext cx="1963672" cy="650411"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>レイドボス戦リザルト</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>74907</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>57824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>549631</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>60547</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="76" name="直線矢印コネクタ 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D147AA7-602E-4C51-B9C5-0E52671D5397}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="104" idx="3"/>
+          <a:endCxn id="132" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19805264" y="5691181"/>
+          <a:ext cx="474724" cy="2723"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>77630</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>7476</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>552354</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>9516</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="84" name="直線矢印コネクタ 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{065BCFEC-C00D-41BA-B974-17259E196109}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="106" idx="3"/>
+          <a:endCxn id="134" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="19807987" y="6620547"/>
+          <a:ext cx="474724" cy="2040"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>80353</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>5429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>555077</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>7468</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="98" name="直線矢印コネクタ 97">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E046F42-6003-4775-80E3-A750A4A731B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="108" idx="3"/>
+          <a:endCxn id="135" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="19810710" y="7598215"/>
+          <a:ext cx="474724" cy="2039"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>472231</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>60547</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>292451</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>60547</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="119" name="直線コネクタ 118">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54D3E4F7-37D0-42D2-9A2C-82C74DFE2BDE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="132" idx="3"/>
+          <a:endCxn id="125" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22243660" y="5693904"/>
+          <a:ext cx="500577" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>474954</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>7476</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>292451</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>12239</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="138" name="直線コネクタ 137">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EE3AE14-B023-4FC9-A4AA-FFEEB7B223F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="134" idx="3"/>
+          <a:endCxn id="128" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22246383" y="6620547"/>
+          <a:ext cx="497854" cy="4763"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>477677</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>5429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>292451</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>5429</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="140" name="直線コネクタ 139">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1958E9FA-D6E2-4B2B-91D2-0725519D7F41}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="135" idx="3"/>
+          <a:endCxn id="130" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22249106" y="7598215"/>
+          <a:ext cx="495131" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
@@ -7771,8 +8343,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDDDA59B-DE32-42A3-8FDC-010163BC8BAD}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AA20" sqref="AA20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AJ33" sqref="AJ33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
